--- a/API-Auto/testFile/case/用户API.xlsx
+++ b/API-Auto/testFile/case/用户API.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="获取用户信息" sheetId="2" r:id="rId1"/>
     <sheet name="注销" sheetId="3" r:id="rId2"/>
-    <sheet name="登录" sheetId="1" r:id="rId3"/>
+    <sheet name="用户登录" sheetId="1" r:id="rId3"/>
     <sheet name="用户切换" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>case_name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>注销登录错误</t>
   </si>
   <si>
-    <t>用户登录正确</t>
+    <t>url和参数都正确</t>
   </si>
   <si>
     <t>/UserLogin/login</t>
@@ -90,7 +90,16 @@
     <t>post</t>
   </si>
   <si>
-    <t>用户登录用户名为空</t>
+    <t>url为空</t>
+  </si>
+  <si>
+    <t>url为错误</t>
+  </si>
+  <si>
+    <t>/UserLogin/login1122</t>
+  </si>
+  <si>
+    <t>username为空</t>
   </si>
   <si>
     <t>{
@@ -101,7 +110,18 @@
 }</t>
   </si>
   <si>
-    <t>用户登录密码为空</t>
+    <t>username为错误</t>
+  </si>
+  <si>
+    <t>{
+ "username":"cuowu",
+ "password":"123456",
+ "channel":"1",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>password为空</t>
   </si>
   <si>
     <t>{
@@ -109,6 +129,83 @@
  "password":"",
  "channel":"1",
  "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>password为错误</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "password":"123546789",
+ "channel":"1",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>channel为PC</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "password":"123546",
+ "channel":"1",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>channel为APP</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "password":"123546",
+ "channel":"2",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>channel为错误</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "password":"123546",
+ "channel":"3",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>channel为空</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "password":"123546",
+ "channel":"",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>timeout为空</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "password":"123546",
+ "channel":"2",
+ "timeout":""
+}</t>
+  </si>
+  <si>
+    <t>timeout为错误</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "password":"123546",
+ "channel":"2",
+ "timeout":"@#￥%"
 }</t>
   </si>
 </sst>
@@ -118,9 +215,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,6 +225,73 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,14 +304,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,75 +327,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +341,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -246,7 +359,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,22 +367,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,61 +381,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,120 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,15 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,6 +586,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,26 +638,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,21 +672,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,145 +680,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1166,10 +1263,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1237,13 +1340,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.625" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
@@ -1283,27 +1386,164 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:4">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="81" spans="1:4">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="81" spans="1:4">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="81" spans="1:4">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="81" spans="1:4">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:4">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:4">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="81" spans="1:4">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/API-Auto/testFile/case/用户API.xlsx
+++ b/API-Auto/testFile/case/用户API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="获取用户信息" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>case_name</t>
   </si>
@@ -31,7 +31,7 @@
     <t>method</t>
   </si>
   <si>
-    <t>通过票据获取平台用户信息为正常</t>
+    <t>url和id都填写正确</t>
   </si>
   <si>
     <t>/SingleSignOn/find/</t>
@@ -43,19 +43,28 @@
     <t>get</t>
   </si>
   <si>
-    <t>通过票据获取平台用户信息为空</t>
+    <t>url填写错误</t>
+  </si>
+  <si>
+    <t>/SingleSignOn/find1111/</t>
+  </si>
+  <si>
+    <t>url为空</t>
+  </si>
+  <si>
+    <t>id为空</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>通过票据获取平台用户信息为错误</t>
+    <t>id为错误</t>
   </si>
   <si>
     <t>{#%$%&amp;@*}</t>
   </si>
   <si>
-    <t>注销登录正常</t>
+    <t>url和id都正确</t>
   </si>
   <si>
     <t>/UserLogout/logout/</t>
@@ -67,10 +76,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>注销登录为空</t>
-  </si>
-  <si>
-    <t>注销登录错误</t>
+    <t>/UserLogout/logout1122/</t>
   </si>
   <si>
     <t>url和参数都正确</t>
@@ -90,9 +96,6 @@
     <t>post</t>
   </si>
   <si>
-    <t>url为空</t>
-  </si>
-  <si>
     <t>url为错误</t>
   </si>
   <si>
@@ -208,15 +211,83 @@
  "timeout":"@#￥%"
 }</t>
   </si>
+  <si>
+    <t>/UserLogin/switchUser</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "channel":"1",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>/UserLogin/switchUser1122</t>
+  </si>
+  <si>
+    <t>username填写错误</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试xxx",
+ "channel":"1",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>username填写为空</t>
+  </si>
+  <si>
+    <t>{
+ "username":"",
+ "channel":"1",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "channel":"2",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "channel":"3",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "channel":"",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "channel":"1",
+ "timeout":""
+}</t>
+  </si>
+  <si>
+    <t>{
+ "username":"测试05",
+ "channel":"2",
+ "timeout":"xxxxxx"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -229,7 +300,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +337,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -259,72 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -333,11 +413,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,16 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,43 +452,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,127 +572,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,30 +643,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,6 +666,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,19 +738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,145 +751,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,13 +1252,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -1209,7 +1280,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1223,30 +1294,55 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1260,16 +1356,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
   </cols>
@@ -1289,45 +1385,70 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1342,8 +1463,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1370,181 +1491,181 @@
     </row>
     <row r="2" ht="81" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:4">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="81" spans="1:4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="81" spans="1:4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:4">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="81" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:4">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="81" spans="1:4">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1557,17 +1678,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1585,6 +1706,158 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" ht="99" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:4">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:4">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:4">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/API-Auto/testFile/case/用户API.xlsx
+++ b/API-Auto/testFile/case/用户API.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>case_name</t>
   </si>
@@ -286,9 +286,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -300,14 +300,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,128 +442,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -452,13 +452,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,169 +584,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,30 +643,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -700,7 +676,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,26 +729,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,145 +751,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,10 +1461,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1516,10 +1516,7 @@
     </row>
     <row r="4" ht="81" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1530,27 +1527,27 @@
     </row>
     <row r="5" ht="81" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -1558,13 +1555,13 @@
     </row>
     <row r="7" ht="81" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -1572,13 +1569,13 @@
     </row>
     <row r="8" ht="81" spans="1:4">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -1586,13 +1583,13 @@
     </row>
     <row r="9" ht="81" spans="1:4">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
@@ -1600,13 +1597,13 @@
     </row>
     <row r="10" ht="81" spans="1:4">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -1614,13 +1611,13 @@
     </row>
     <row r="11" ht="81" spans="1:4">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1628,13 +1625,13 @@
     </row>
     <row r="12" ht="81" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -1642,13 +1639,13 @@
     </row>
     <row r="13" ht="81" spans="1:4">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
@@ -1656,15 +1653,29 @@
     </row>
     <row r="14" ht="81" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="81" spans="1:4">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1680,8 +1691,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1720,7 +1731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:4">
+    <row r="3" ht="67.5" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1730,23 +1741,16 @@
       <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="67.5" spans="1:4">
+    </row>
+    <row r="4" ht="67.5" spans="1:3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4"/>
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:4">
+    </row>
+    <row r="5" ht="67.5" spans="1:3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1756,11 +1760,8 @@
       <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:4">
+    </row>
+    <row r="6" ht="67.5" spans="1:3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1770,11 +1771,8 @@
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:4">
+    </row>
+    <row r="7" ht="67.5" spans="1:3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1784,11 +1782,8 @@
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:4">
+    </row>
+    <row r="8" ht="67.5" spans="1:3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1798,11 +1793,8 @@
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:4">
+    </row>
+    <row r="9" ht="67.5" spans="1:3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1812,11 +1804,8 @@
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:4">
+    </row>
+    <row r="10" ht="67.5" spans="1:3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1826,11 +1815,8 @@
       <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:4">
+    </row>
+    <row r="11" ht="67.5" spans="1:3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1840,11 +1826,8 @@
       <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:4">
+    </row>
+    <row r="12" ht="67.5" spans="1:3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1853,9 +1836,6 @@
       </c>
       <c r="C12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/API-Auto/testFile/case/用户API.xlsx
+++ b/API-Auto/testFile/case/用户API.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="获取用户信息" sheetId="2" r:id="rId1"/>
-    <sheet name="注销" sheetId="3" r:id="rId2"/>
+    <sheet name="注销登录" sheetId="3" r:id="rId2"/>
     <sheet name="用户登录" sheetId="1" r:id="rId3"/>
     <sheet name="用户切换" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,11 +17,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>case_name</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
@@ -31,52 +37,100 @@
     <t>method</t>
   </si>
   <si>
-    <t>url和id都填写正确</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>用户票据填写正确</t>
+  </si>
+  <si>
+    <t>192.168.31.93</t>
   </si>
   <si>
     <t>/SingleSignOn/find/</t>
   </si>
   <si>
-    <t>{1234578}</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>url填写错误</t>
-  </si>
-  <si>
-    <t>/SingleSignOn/find1111/</t>
-  </si>
-  <si>
-    <t>url为空</t>
-  </si>
-  <si>
-    <t>id为空</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>id为错误</t>
-  </si>
-  <si>
-    <t>{#%$%&amp;@*}</t>
-  </si>
-  <si>
-    <t>url和id都正确</t>
+    <t>{
+    "code": "000000",
+    "content": {
+        "channel": 2,
+        "id": 48229,
+        "username": "测试05"
+    },
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>用户票据填写错误</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/SingleSignOn/find/111"
+}</t>
+  </si>
+  <si>
+    <t>用户票据填写无效</t>
+  </si>
+  <si>
+    <t>f36355fa-aadb-11ea-858f-0a0027000001</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900024",
+    "content": null,
+    "message": "无效的票据"
+}</t>
+  </si>
+  <si>
+    <t>用户票据填写为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/SingleSignOn/find/"
+}</t>
   </si>
   <si>
     <t>/UserLogout/logout/</t>
   </si>
   <si>
-    <t>{12345678}</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
-    <t>/UserLogout/logout1122/</t>
+    <t>{
+    "code": "000000",
+    "content": true,
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/UserLogout/logout/1111"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": false,
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/UserLogout/logout/"
+}</t>
   </si>
   <si>
     <t>url和参数都正确</t>
@@ -96,10 +150,34 @@
     <t>post</t>
   </si>
   <si>
+    <t>{
+    "code": "000000",
+    "content": "3b9a923a-aac1-11ea-858f-0a0027000008",
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
     <t>url为错误</t>
   </si>
   <si>
-    <t>/UserLogin/login1122</t>
+    <t>/UserLogin/login1111</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/UserLogin/login1111"
+}</t>
+  </si>
+  <si>
+    <t>url为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误"
+}</t>
   </si>
   <si>
     <t>username为空</t>
@@ -113,6 +191,13 @@
 }</t>
   </si>
   <si>
+    <t>{
+    "code": "900007",
+    "content": null,
+    "message": "用户名或手机号不能为空"
+}</t>
+  </si>
+  <si>
     <t>username为错误</t>
   </si>
   <si>
@@ -124,6 +209,13 @@
 }</t>
   </si>
   <si>
+    <t>{
+    "code": "200001",
+    "content": null,
+    "message": "账号或密码错误"
+}</t>
+  </si>
+  <si>
     <t>password为空</t>
   </si>
   <si>
@@ -135,6 +227,13 @@
 }</t>
   </si>
   <si>
+    <t>{
+    "code": "900007",
+    "content": null,
+    "message": "密码不能为空"
+}</t>
+  </si>
+  <si>
     <t>password为错误</t>
   </si>
   <si>
@@ -150,41 +249,54 @@
   </si>
   <si>
     <t>{
+    "code": "000000",
+    "content": "dce88a19-aac1-11ea-858f-0a0027000008",
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>channel为APP</t>
+  </si>
+  <si>
+    <t>{
  "username":"测试05",
- "password":"123546",
- "channel":"1",
- "timeout":"28800"
-}</t>
-  </si>
-  <si>
-    <t>channel为APP</t>
-  </si>
-  <si>
-    <t>{
- "username":"测试05",
- "password":"123546",
+ "password":"123456",
  "channel":"2",
  "timeout":"28800"
 }</t>
   </si>
   <si>
+    <t>{
+    "code": "000000",
+    "content": "e7fb544b-aac1-11ea-858f-0a0027000008",
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
     <t>channel为错误</t>
   </si>
   <si>
     <t>{
  "username":"测试05",
- "password":"123546",
+ "password":"123456",
  "channel":"3",
  "timeout":"28800"
 }</t>
   </si>
   <si>
+    <t>{
+    "code": "900007",
+    "content": null,
+    "message": "渠道类型不正确"
+}</t>
+  </si>
+  <si>
     <t>channel为空</t>
   </si>
   <si>
     <t>{
  "username":"测试05",
- "password":"123546",
+ "password":"123456",
  "channel":"",
  "timeout":"28800"
 }</t>
@@ -195,20 +307,34 @@
   <si>
     <t>{
  "username":"测试05",
- "password":"123546",
+ "password":"123456",
  "channel":"2",
  "timeout":""
 }</t>
   </si>
   <si>
+    <t>{
+    "code": "900007",
+    "content": null,
+    "message": "超时时间最小28800秒（8小时）"
+}</t>
+  </si>
+  <si>
     <t>timeout为错误</t>
   </si>
   <si>
     <t>{
  "username":"测试05",
- "password":"123546",
+ "password":"123456",
  "channel":"2",
  "timeout":"@#￥%"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900006",
+    "content": null,
+    "message": "JSON parse error: Cannot deserialize value of type `int` from String \"@\":)"
 }</t>
   </si>
   <si>
@@ -220,6 +346,9 @@
  "channel":"1",
  "timeout":"28800"
 }</t>
+  </si>
+  <si>
+    <t>url填写错误</t>
   </si>
   <si>
     <t>/UserLogin/switchUser1122</t>
@@ -285,9 +414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -296,20 +425,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,23 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,14 +458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -375,9 +467,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +488,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -419,7 +535,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -452,181 +581,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,21 +772,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,20 +795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +821,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,158 +880,173 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1252,20 +1396,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="46.25" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="38.25" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,72 +1427,103 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="121.5" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>38080</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="81" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" s="3">
+        <v>38080</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="E3" s="8">
+        <v>1111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38080</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38080</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1356,21 +1536,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,72 +1565,103 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="100" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="103" customHeight="1" spans="1:7">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:7">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38080</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1461,21 +1674,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="32.625" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="63.25" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,195 +1705,313 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="81" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="78" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>38080</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" ht="81" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38080</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="81" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="81" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38080</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38080</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="81" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:7">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="81" spans="1:4">
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="81" spans="1:7">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="81" spans="1:7">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="81" spans="1:7">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="81" spans="1:4">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="81" spans="1:4">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="81" spans="1:4">
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:7">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="81" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" ht="81" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="81" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:7">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="81" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="81" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="81" spans="1:7">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="81" spans="1:4">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1689,21 +2024,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="44.625" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="1" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="44.625" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1716,126 +2053,234 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="99" customHeight="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="99" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:6">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:6">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38080</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:6">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:6">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:6">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" ht="67.5" spans="1:3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" ht="67.5" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:6">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:6">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:6">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:6">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/API-Auto/testFile/case/用户API.xlsx
+++ b/API-Auto/testFile/case/用户API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="获取用户信息" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>case_name</t>
   </si>
@@ -140,27 +140,35 @@
   </si>
   <si>
     <t>{
+ "username":"药易购测试-张芮豪",
+ "password":"123456",
+ "channel":"1",
+ "timeout":"28800"
+}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": "3b9a923a-aac1-11ea-858f-0a0027000008",
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>url为错误</t>
+  </si>
+  <si>
+    <t>/UserLogin/login1111</t>
+  </si>
+  <si>
+    <t>{
  "username":"测试05",
  "password":"123456",
  "channel":"1",
  "timeout":"28800"
 }</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{
-    "code": "000000",
-    "content": "3b9a923a-aac1-11ea-858f-0a0027000008",
-    "message": "操作成功"
-}</t>
-  </si>
-  <si>
-    <t>url为错误</t>
-  </si>
-  <si>
-    <t>/UserLogin/login1111</t>
   </si>
   <si>
     <t>{
@@ -414,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -428,8 +436,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,133 +574,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -581,187 +589,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,22 +783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,17 +813,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,15 +842,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,17 +861,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,137 +900,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,13 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1400,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1456,12 +1458,12 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="81" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -1473,18 +1475,18 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <v>1111</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -1502,12 +1504,12 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -1522,7 +1524,7 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1594,12 +1596,12 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -1611,18 +1613,18 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <v>1111</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="103" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -1640,12 +1642,12 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -1660,7 +1662,7 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1676,8 +1678,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1755,18 +1757,18 @@
         <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1775,18 +1777,18 @@
         <v>38080</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:7">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1798,18 +1800,18 @@
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:7">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1821,18 +1823,18 @@
         <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1844,18 +1846,18 @@
         <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="81" spans="1:7">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1867,18 +1869,18 @@
         <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="81" spans="1:7">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1890,18 +1892,18 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:7">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1913,18 +1915,18 @@
         <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" ht="81" spans="1:7">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1936,18 +1938,18 @@
         <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:7">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1959,18 +1961,18 @@
         <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1982,18 +1984,18 @@
         <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="81" spans="1:7">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -2005,13 +2007,13 @@
         <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2077,10 +2079,10 @@
         <v>38080</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -2088,19 +2090,19 @@
     </row>
     <row r="3" ht="67.5" spans="1:6">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>38080</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -2108,7 +2110,7 @@
     </row>
     <row r="4" ht="67.5" spans="1:6">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2117,7 +2119,7 @@
         <v>38080</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2125,7 +2127,7 @@
     </row>
     <row r="5" ht="67.5" spans="1:6">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2134,10 +2136,10 @@
         <v>38080</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -2145,7 +2147,7 @@
     </row>
     <row r="6" ht="67.5" spans="1:6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2154,10 +2156,10 @@
         <v>38080</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -2165,7 +2167,7 @@
     </row>
     <row r="7" ht="67.5" spans="1:6">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2174,10 +2176,10 @@
         <v>38080</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2185,7 +2187,7 @@
     </row>
     <row r="8" ht="67.5" spans="1:6">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -2194,10 +2196,10 @@
         <v>38080</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -2205,7 +2207,7 @@
     </row>
     <row r="9" ht="67.5" spans="1:6">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2214,10 +2216,10 @@
         <v>38080</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2225,7 +2227,7 @@
     </row>
     <row r="10" ht="67.5" spans="1:6">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -2234,10 +2236,10 @@
         <v>38080</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2245,7 +2247,7 @@
     </row>
     <row r="11" ht="67.5" spans="1:6">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2254,10 +2256,10 @@
         <v>38080</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
@@ -2265,7 +2267,7 @@
     </row>
     <row r="12" ht="67.5" spans="1:6">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -2274,10 +2276,10 @@
         <v>38080</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>

--- a/API-Auto/testFile/case/用户API.xlsx
+++ b/API-Auto/testFile/case/用户API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="获取用户信息" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
   <si>
     <t>case_name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>/SingleSignOn/find/</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>get</t>
@@ -436,17 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,60 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,11 +477,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,8 +517,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,17 +576,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -589,37 +592,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,145 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,21 +783,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -813,35 +801,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,19 +854,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,10 +891,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,133 +903,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1455,16 +1458,19 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="81" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="82" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1479,15 +1485,15 @@
         <v>1111</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1499,18 +1505,18 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1522,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1591,18 +1597,18 @@
         <v>38080</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1611,21 +1617,21 @@
         <v>38080</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3">
         <v>1111</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="103" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1634,21 +1640,21 @@
         <v>38080</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1657,13 +1663,13 @@
         <v>38080</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1678,8 +1684,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="2" ht="78" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1731,21 +1737,21 @@
         <v>38080</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1754,21 +1760,21 @@
         <v>38080</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:7">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1777,18 +1783,18 @@
         <v>38080</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:7">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1797,21 +1803,21 @@
         <v>38080</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:7">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1820,21 +1826,21 @@
         <v>38080</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1843,21 +1849,21 @@
         <v>38080</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="81" spans="1:7">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1866,21 +1872,21 @@
         <v>38080</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="81" spans="1:7">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1889,21 +1895,21 @@
         <v>38080</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:7">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1912,21 +1918,21 @@
         <v>38080</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="81" spans="1:7">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1935,44 +1941,44 @@
         <v>38080</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:7">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>38080</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1981,21 +1987,21 @@
         <v>38080</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="81" spans="1:7">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -2004,16 +2010,16 @@
         <v>38080</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="2" ht="99" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2079,38 +2085,38 @@
         <v>38080</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:6">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38080</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>38080</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:6">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2119,15 +2125,15 @@
         <v>38080</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:6">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2136,18 +2142,18 @@
         <v>38080</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2156,18 +2162,18 @@
         <v>38080</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:6">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2176,18 +2182,18 @@
         <v>38080</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:6">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -2196,18 +2202,18 @@
         <v>38080</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:6">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2216,18 +2222,18 @@
         <v>38080</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:6">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -2236,18 +2242,18 @@
         <v>38080</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:6">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2256,18 +2262,18 @@
         <v>38080</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:6">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -2276,13 +2282,13 @@
         <v>38080</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/API-Auto/testFile/case/用户API.xlsx
+++ b/API-Auto/testFile/case/用户API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="获取用户信息" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="78">
   <si>
     <t>case_name</t>
   </si>
@@ -52,7 +52,7 @@
     <t>/SingleSignOn/find/</t>
   </si>
   <si>
-    <t>test</t>
+    <t>hesytoken</t>
   </si>
   <si>
     <t>get</t>
@@ -425,10 +425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -446,16 +446,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,9 +492,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,6 +544,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -555,20 +569,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -576,10 +576,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -592,187 +592,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,17 +786,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,17 +815,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,10 +849,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -868,21 +883,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -891,28 +891,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,115 +921,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,7 +1403,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1546,8 +1546,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1598,6 +1598,9 @@
       </c>
       <c r="D2" t="s">
         <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
